--- a/medicine/Pharmacie/Ciprofloxacine/Ciprofloxacine.xlsx
+++ b/medicine/Pharmacie/Ciprofloxacine/Ciprofloxacine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La ciprofloxacine est la dénomination internationale d'un antibiotique de synthèse créé et commercialisé par les laboratoires Bayer sous le nom de Ciflox en France, Ciproxine en Belgique, Ciprinol en Roumanie et Moldavie et Cipro au Canada et aux États-Unis. Elle appartient à la famille des quinolones de deuxième génération ou fluoroquinolones.
@@ -513,7 +525,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La ciprofloxacine est un antibiotique à large spectre, habituellement efficace sur les bactéries
 Gram-positives, Gram-négatives, les germes atypiques (intracellulaires) et certains genres anaérobies. Elle inhibe l'ADN gyrase bactérienne, une enzyme de la famille des topoisomérases, nécessaire à la réplication de l'ADN de la bactérie.
@@ -569,9 +583,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LDLo = 5 714 mg kg−1 (humain, oral)[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LDLo = 5 714 mg kg−1 (humain, oral)
 </t>
         </is>
       </c>
@@ -600,9 +616,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ciprofloxacine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ciprofloxacine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 			Paquet de Ciprofloxacine du Mexique.
 </t>
         </is>
